--- a/src/main/resources/xlsx/crs/applicant_list.xlsx
+++ b/src/main/resources/xlsx/crs/applicant_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\干部招聘\2017.10\附件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\crs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E239AE47-FD58-40A6-988E-090ADFFC9DDC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报名" sheetId="6" r:id="rId1"/>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
@@ -158,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -190,13 +191,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,6 +235,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -564,11 +580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -674,12 +690,48 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
+    <row r="4" spans="1:15" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+    </row>
   </sheetData>
   <sortState sortMethod="stroke" ref="A3:O4">
     <sortCondition ref="B3:B4"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/crs/applicant_list.xlsx
+++ b/src/main/resources/xlsx/crs/applicant_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\crs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\待完成\干部竞争上岗\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E239AE47-FD58-40A6-988E-090ADFFC9DDC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D25A3BCE-9F11-4979-8ABB-ECFA29C825AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,10 +46,6 @@
     <t>所学专业</t>
   </si>
   <si>
-    <t>专业技术职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所在单位及职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,30 +67,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专业技术职务评定时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐/
 自荐</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">title应聘人员基本情况
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文中宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（按姓氏笔划排序）</t>
-    </r>
+    <t>专业技术
+职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专技职务评定时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title应聘人员基本情况
+（按姓氏笔划排序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -104,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,13 +131,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="华文中宋"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,10 +219,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -584,7 +566,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -628,7 +610,7 @@
     </row>
     <row r="2" spans="1:15" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -643,13 +625,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>5</v>
@@ -661,16 +643,16 @@
         <v>4</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -691,42 +673,42 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
     </row>
   </sheetData>
-  <sortState sortMethod="stroke" ref="A3:O4">
-    <sortCondition ref="B3:B4"/>
+  <sortState sortMethod="stroke" ref="A3:O3">
+    <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:O1"/>

--- a/src/main/resources/xlsx/crs/applicant_list.xlsx
+++ b/src/main/resources/xlsx/crs/applicant_list.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\待完成\干部竞争上岗\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D25A3BCE-9F11-4979-8ABB-ECFA29C825AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE34403E-8F54-4DCF-A00A-709D5EA87B26}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报名" sheetId="6" r:id="rId1"/>
+    <sheet name="组长" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">报名!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">报名!$A$3:$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">组长!$A$3:$O$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>姓名</t>
   </si>
@@ -63,8 +65,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>党派加入时间</t>
+    <t>注：答辩顺序由抽签决定。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业技术
+职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩
+顺序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>党派加入
+时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业技术职务评定时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>推荐/
@@ -72,17 +93,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>专业技术
-职务</t>
+    <t>（按姓氏笔划排序）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专技职务评定时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>title应聘人员基本情况
-（按姓氏笔划排序）</t>
+    <t>title应聘人员基本情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +141,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -188,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -216,14 +246,38 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -589,131 +643,347 @@
     <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="O3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+  </sheetData>
+  <sortState sortMethod="stroke" ref="A4:O5">
+    <sortCondition ref="B4:B5"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="4.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="10" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="10" customWidth="1"/>
+    <col min="12" max="12" width="23.5" style="10" customWidth="1"/>
+    <col min="13" max="13" width="11" style="10" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="10" customWidth="1"/>
+    <col min="15" max="15" width="6.75" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="12" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" s="11" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
     </row>
   </sheetData>
-  <sortState sortMethod="stroke" ref="A3:O3">
-    <sortCondition ref="B3"/>
-  </sortState>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/crs/applicant_list.xlsx
+++ b/src/main/resources/xlsx/crs/applicant_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\待完成\干部竞争上岗\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\crs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE34403E-8F54-4DCF-A00A-709D5EA87B26}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD8BE3C-B418-4E8F-9007-A8961325D00D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报名" sheetId="6" r:id="rId1"/>
@@ -258,26 +258,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,7 +620,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -631,11 +631,11 @@
     <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="4.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="8" customWidth="1"/>
     <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.25" style="1" customWidth="1"/>
@@ -644,42 +644,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:15" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -746,38 +746,38 @@
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
   </sheetData>
   <sortState sortMethod="stroke" ref="A4:O5">
@@ -825,42 +825,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="12" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:15" s="12" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -927,55 +927,55 @@
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:15" s="11" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
